--- a/notebooks/SCO2/input/SCO2_MC4DN2_individuals.xlsx
+++ b/notebooks/SCO2/input/SCO2_MC4DN2_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SCO2/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SCO2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ACB3AF-EE6F-F043-A016-97CB5A6A8D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97516974-94B0-C349-A74C-4D55A3D680E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3980" windowWidth="32760" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="10340" windowWidth="32760" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="358">
   <si>
     <t>PMID</t>
   </si>
@@ -1091,6 +1091,9 @@
   </si>
   <si>
     <t>HP:0002683</t>
+  </si>
+  <si>
+    <t>P2Y</t>
   </si>
 </sst>
 </file>
@@ -1463,13 +1466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:DJ2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2190,7 +2194,7 @@
         <v>281</v>
       </c>
       <c r="M3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N3" t="s">
         <v>195</v>
@@ -2328,7 +2332,7 @@
         <v>109</v>
       </c>
       <c r="BG3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BH3" t="s">
         <v>109</v>
@@ -2528,7 +2532,7 @@
         <v>281</v>
       </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="N4" t="s">
         <v>197</v>

--- a/notebooks/SCO2/input/SCO2_MC4DN2_individuals.xlsx
+++ b/notebooks/SCO2/input/SCO2_MC4DN2_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SCO2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97516974-94B0-C349-A74C-4D55A3D680E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0191A802-E788-F542-B1E2-9B5A9E9314F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="10340" windowWidth="32760" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="363">
   <si>
     <t>PMID</t>
   </si>
@@ -619,12 +619,6 @@
     <t>observed</t>
   </si>
   <si>
-    <t>35112411_P1</t>
-  </si>
-  <si>
-    <t>35112411_P2</t>
-  </si>
-  <si>
     <t>PMID:31844624</t>
   </si>
   <si>
@@ -1094,6 +1088,27 @@
   </si>
   <si>
     <t>P2Y</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t>Patient 5 Index II.1</t>
+  </si>
+  <si>
+    <t>Patient 6 brother II.4</t>
+  </si>
+  <si>
+    <t>Absent Achilles reflex</t>
+  </si>
+  <si>
+    <t>HP:0003438</t>
+  </si>
+  <si>
+    <t>Delayed speech and language development</t>
+  </si>
+  <si>
+    <t>HP:0000750</t>
   </si>
 </sst>
 </file>
@@ -1464,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DJ33"/>
+  <dimension ref="A1:DN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="CL1" sqref="CL1:CL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1491,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1556,7 @@
         <v>53</v>
       </c>
       <c r="V1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W1" t="s">
         <v>59</v>
@@ -1562,263 +1577,269 @@
         <v>68</v>
       </c>
       <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT1" t="s">
         <v>296</v>
       </c>
-      <c r="AH1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AU1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY1" t="s">
         <v>297</v>
       </c>
-      <c r="AN1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AZ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>361</v>
+      </c>
+      <c r="BE1" t="s">
         <v>298</v>
       </c>
-      <c r="AS1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="BF1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>359</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU1" t="s">
         <v>299</v>
       </c>
-      <c r="AX1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA1" t="s">
+      <c r="BV1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CD1" t="s">
         <v>300</v>
       </c>
-      <c r="BB1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX1" t="s">
+      <c r="CE1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CN1" t="s">
         <v>302</v>
       </c>
-      <c r="BY1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>19</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CG1" t="s">
+      <c r="CO1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CU1" t="s">
         <v>303</v>
       </c>
-      <c r="CH1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>25</v>
-      </c>
-      <c r="CJ1" t="s">
+      <c r="CV1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CW1" t="s">
         <v>304</v>
       </c>
-      <c r="CK1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>18</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CQ1" t="s">
+      <c r="CX1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DD1" t="s">
         <v>305</v>
       </c>
-      <c r="CR1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CS1" t="s">
+      <c r="DE1" t="s">
+        <v>35</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>65</v>
+      </c>
+      <c r="DI1" t="s">
         <v>306</v>
       </c>
-      <c r="CT1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>44</v>
-      </c>
-      <c r="CZ1" t="s">
+      <c r="DJ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DK1" t="s">
         <v>307</v>
       </c>
-      <c r="DA1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>65</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>308</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>82</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>309</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>31</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>69</v>
-      </c>
-      <c r="DJ1"/>
+      <c r="DN1"/>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -1883,7 +1904,7 @@
         <v>146</v>
       </c>
       <c r="V2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W2" t="s">
         <v>152</v>
@@ -1904,262 +1925,268 @@
         <v>161</v>
       </c>
       <c r="AC2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG2" t="s">
         <v>139</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
         <v>180</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT2" t="s">
         <v>282</v>
       </c>
-      <c r="AH2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AU2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY2" t="s">
         <v>283</v>
       </c>
-      <c r="AN2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AZ2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>287</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>362</v>
+      </c>
+      <c r="BE2" t="s">
         <v>284</v>
       </c>
-      <c r="AS2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BU2" t="s">
         <v>285</v>
       </c>
-      <c r="AX2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BV2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD2" t="s">
         <v>286</v>
       </c>
-      <c r="BB2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>185</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>287</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BX2" t="s">
+      <c r="CE2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>189</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN2" t="s">
         <v>288</v>
       </c>
-      <c r="BY2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>149</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>189</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>144</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>163</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>119</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CO2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>167</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>179</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>181</v>
+      </c>
+      <c r="CU2" t="s">
         <v>289</v>
       </c>
-      <c r="CH2" t="s">
-        <v>150</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>118</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CV2" t="s">
+        <v>178</v>
+      </c>
+      <c r="CW2" t="s">
         <v>290</v>
       </c>
-      <c r="CK2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>167</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>155</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>111</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>181</v>
-      </c>
-      <c r="CQ2" t="s">
+      <c r="CX2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>176</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>188</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>182</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>140</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD2" t="s">
         <v>291</v>
       </c>
-      <c r="CR2" t="s">
-        <v>178</v>
-      </c>
-      <c r="CS2" t="s">
+      <c r="DE2" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI2" t="s">
         <v>292</v>
       </c>
-      <c r="CT2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>182</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>137</v>
-      </c>
-      <c r="CZ2" t="s">
+      <c r="DJ2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DK2" t="s">
         <v>293</v>
       </c>
-      <c r="DA2" t="s">
-        <v>128</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>174</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>294</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>175</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>295</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>124</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>162</v>
-      </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -2167,7 +2194,7 @@
         <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>357</v>
       </c>
       <c r="E3" t="s">
         <v>101</v>
@@ -2191,7 +2218,7 @@
         <v>193</v>
       </c>
       <c r="L3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M3" t="s">
         <v>197</v>
@@ -2224,7 +2251,7 @@
         <v>109</v>
       </c>
       <c r="W3" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="X3" t="s">
         <v>109</v>
@@ -2233,16 +2260,16 @@
         <v>109</v>
       </c>
       <c r="Z3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="AA3" t="s">
         <v>109</v>
       </c>
       <c r="AB3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="AC3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="AD3" t="s">
         <v>109</v>
@@ -2251,16 +2278,16 @@
         <v>109</v>
       </c>
       <c r="AF3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="AG3" t="s">
         <v>109</v>
       </c>
       <c r="AH3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="AI3" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AJ3" t="s">
         <v>109</v>
@@ -2272,13 +2299,13 @@
         <v>109</v>
       </c>
       <c r="AM3" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AN3" t="s">
         <v>109</v>
       </c>
       <c r="AO3" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AP3" t="s">
         <v>109</v>
@@ -2299,13 +2326,13 @@
         <v>109</v>
       </c>
       <c r="AV3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="AW3" t="s">
         <v>109</v>
       </c>
       <c r="AX3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="AY3" t="s">
         <v>109</v>
@@ -2323,7 +2350,7 @@
         <v>109</v>
       </c>
       <c r="BD3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="BE3" t="s">
         <v>109</v>
@@ -2332,28 +2359,28 @@
         <v>109</v>
       </c>
       <c r="BG3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM3" t="s">
         <v>197</v>
       </c>
-      <c r="BH3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>109</v>
-      </c>
       <c r="BN3" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BO3" t="s">
         <v>109</v>
@@ -2362,7 +2389,7 @@
         <v>109</v>
       </c>
       <c r="BQ3" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BR3" t="s">
         <v>109</v>
@@ -2377,10 +2404,10 @@
         <v>109</v>
       </c>
       <c r="BV3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="BW3" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BX3" t="s">
         <v>109</v>
@@ -2398,7 +2425,7 @@
         <v>109</v>
       </c>
       <c r="CC3" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CD3" t="s">
         <v>109</v>
@@ -2413,19 +2440,19 @@
         <v>109</v>
       </c>
       <c r="CH3" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CI3" t="s">
         <v>109</v>
       </c>
       <c r="CJ3" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="CK3" t="s">
         <v>109</v>
       </c>
       <c r="CL3" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CM3" t="s">
         <v>109</v>
@@ -2496,8 +2523,14 @@
       <c r="DI3" t="s">
         <v>109</v>
       </c>
+      <c r="DJ3" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -2505,7 +2538,7 @@
         <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>358</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
@@ -2529,10 +2562,10 @@
         <v>193</v>
       </c>
       <c r="L4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N4" t="s">
         <v>197</v>
@@ -2580,7 +2613,7 @@
         <v>109</v>
       </c>
       <c r="AC4" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AD4" t="s">
         <v>109</v>
@@ -2592,7 +2625,7 @@
         <v>109</v>
       </c>
       <c r="AG4" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AH4" t="s">
         <v>109</v>
@@ -2658,10 +2691,10 @@
         <v>109</v>
       </c>
       <c r="BC4" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BD4" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BE4" t="s">
         <v>109</v>
@@ -2670,13 +2703,13 @@
         <v>109</v>
       </c>
       <c r="BG4" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="BH4" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="BI4" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="BJ4" t="s">
         <v>109</v>
@@ -2748,7 +2781,7 @@
         <v>109</v>
       </c>
       <c r="CG4" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CH4" t="s">
         <v>109</v>
@@ -2834,16 +2867,22 @@
       <c r="DI4" t="s">
         <v>109</v>
       </c>
+      <c r="DJ4" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
         <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" t="s">
-        <v>203</v>
       </c>
       <c r="E5" t="s">
         <v>101</v>
@@ -2861,16 +2900,16 @@
         <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N5" t="s">
         <v>109</v>
@@ -2924,7 +2963,7 @@
         <v>109</v>
       </c>
       <c r="AE5" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s">
         <v>109</v>
@@ -2933,16 +2972,16 @@
         <v>109</v>
       </c>
       <c r="AH5" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AI5" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AJ5" t="s">
         <v>109</v>
       </c>
       <c r="AK5" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AL5" t="s">
         <v>109</v>
@@ -2998,9 +3037,6 @@
       <c r="BC5" t="s">
         <v>109</v>
       </c>
-      <c r="BD5" t="s">
-        <v>109</v>
-      </c>
       <c r="BE5" t="s">
         <v>109</v>
       </c>
@@ -3008,10 +3044,7 @@
         <v>109</v>
       </c>
       <c r="BG5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BI5" t="s">
         <v>109</v>
@@ -3029,10 +3062,10 @@
         <v>198</v>
       </c>
       <c r="BN5" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BO5" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BP5" t="s">
         <v>109</v>
@@ -3044,13 +3077,13 @@
         <v>109</v>
       </c>
       <c r="BS5" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BT5" t="s">
         <v>109</v>
       </c>
       <c r="BU5" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BV5" t="s">
         <v>109</v>
@@ -3077,7 +3110,7 @@
         <v>109</v>
       </c>
       <c r="CD5" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CE5" t="s">
         <v>109</v>
@@ -3095,7 +3128,7 @@
         <v>109</v>
       </c>
       <c r="CJ5" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CK5" t="s">
         <v>109</v>
@@ -3146,7 +3179,7 @@
         <v>109</v>
       </c>
       <c r="DA5" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DB5" t="s">
         <v>109</v>
@@ -3158,7 +3191,7 @@
         <v>109</v>
       </c>
       <c r="DE5" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DF5" t="s">
         <v>109</v>
@@ -3172,16 +3205,22 @@
       <c r="DI5" t="s">
         <v>109</v>
       </c>
+      <c r="DJ5" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
         <v>202</v>
-      </c>
-      <c r="C6" t="s">
-        <v>204</v>
       </c>
       <c r="E6" t="s">
         <v>101</v>
@@ -3199,16 +3238,16 @@
         <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N6" t="s">
         <v>109</v>
@@ -3217,7 +3256,7 @@
         <v>196</v>
       </c>
       <c r="P6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q6" t="s">
         <v>109</v>
@@ -3274,7 +3313,7 @@
         <v>109</v>
       </c>
       <c r="AI6" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AJ6" t="s">
         <v>109</v>
@@ -3283,7 +3322,7 @@
         <v>109</v>
       </c>
       <c r="AL6" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AM6" t="s">
         <v>109</v>
@@ -3336,9 +3375,6 @@
       <c r="BC6" t="s">
         <v>109</v>
       </c>
-      <c r="BD6" t="s">
-        <v>109</v>
-      </c>
       <c r="BE6" t="s">
         <v>109</v>
       </c>
@@ -3348,9 +3384,6 @@
       <c r="BG6" t="s">
         <v>109</v>
       </c>
-      <c r="BH6" t="s">
-        <v>198</v>
-      </c>
       <c r="BI6" t="s">
         <v>109</v>
       </c>
@@ -3364,13 +3397,13 @@
         <v>109</v>
       </c>
       <c r="BM6" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BN6" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BO6" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BP6" t="s">
         <v>109</v>
@@ -3382,13 +3415,13 @@
         <v>109</v>
       </c>
       <c r="BS6" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BT6" t="s">
         <v>109</v>
       </c>
       <c r="BU6" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BV6" t="s">
         <v>109</v>
@@ -3510,16 +3543,22 @@
       <c r="DI6" t="s">
         <v>109</v>
       </c>
+      <c r="DJ6" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
         <v>205</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>207</v>
       </c>
       <c r="E7" t="s">
         <v>101</v>
@@ -3537,25 +3576,25 @@
         <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O7" t="s">
         <v>196</v>
       </c>
       <c r="P7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q7" t="s">
         <v>109</v>
@@ -3672,9 +3711,6 @@
         <v>109</v>
       </c>
       <c r="BC7" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD7" t="s">
         <v>109</v>
       </c>
       <c r="BE7" t="s">
@@ -3686,9 +3722,6 @@
       <c r="BG7" t="s">
         <v>198</v>
       </c>
-      <c r="BH7" t="s">
-        <v>109</v>
-      </c>
       <c r="BI7" t="s">
         <v>109</v>
       </c>
@@ -3702,7 +3735,7 @@
         <v>109</v>
       </c>
       <c r="BM7" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BN7" t="s">
         <v>109</v>
@@ -3714,10 +3747,10 @@
         <v>109</v>
       </c>
       <c r="BQ7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BR7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BS7" t="s">
         <v>109</v>
@@ -3732,16 +3765,16 @@
         <v>109</v>
       </c>
       <c r="BW7" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BX7" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BY7" t="s">
         <v>109</v>
       </c>
       <c r="BZ7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CA7" t="s">
         <v>109</v>
@@ -3750,7 +3783,7 @@
         <v>109</v>
       </c>
       <c r="CC7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CD7" t="s">
         <v>109</v>
@@ -3774,13 +3807,13 @@
         <v>109</v>
       </c>
       <c r="CK7" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CL7" t="s">
         <v>109</v>
       </c>
       <c r="CM7" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CN7" t="s">
         <v>109</v>
@@ -3795,7 +3828,7 @@
         <v>109</v>
       </c>
       <c r="CR7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CS7" t="s">
         <v>109</v>
@@ -3807,7 +3840,7 @@
         <v>109</v>
       </c>
       <c r="CV7" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CW7" t="s">
         <v>109</v>
@@ -3848,16 +3881,22 @@
       <c r="DI7" t="s">
         <v>109</v>
       </c>
+      <c r="DJ7" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
         <v>206</v>
-      </c>
-      <c r="C8" t="s">
-        <v>208</v>
       </c>
       <c r="E8" t="s">
         <v>101</v>
@@ -3875,19 +3914,19 @@
         <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O8" t="s">
         <v>196</v>
@@ -3980,13 +4019,13 @@
         <v>109</v>
       </c>
       <c r="AS8" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AT8" t="s">
         <v>109</v>
       </c>
       <c r="AU8" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AV8" t="s">
         <v>109</v>
@@ -4010,22 +4049,16 @@
         <v>109</v>
       </c>
       <c r="BC8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD8" t="s">
         <v>109</v>
       </c>
       <c r="BE8" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BF8" t="s">
         <v>109</v>
       </c>
       <c r="BG8" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BI8" t="s">
         <v>109</v>
@@ -4034,7 +4067,7 @@
         <v>109</v>
       </c>
       <c r="BK8" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BL8" t="s">
         <v>109</v>
@@ -4061,7 +4094,7 @@
         <v>109</v>
       </c>
       <c r="BT8" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BU8" t="s">
         <v>109</v>
@@ -4070,7 +4103,7 @@
         <v>109</v>
       </c>
       <c r="BW8" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BX8" t="s">
         <v>109</v>
@@ -4079,7 +4112,7 @@
         <v>109</v>
       </c>
       <c r="BZ8" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CA8" t="s">
         <v>109</v>
@@ -4088,7 +4121,7 @@
         <v>109</v>
       </c>
       <c r="CC8" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CD8" t="s">
         <v>109</v>
@@ -4118,7 +4151,7 @@
         <v>109</v>
       </c>
       <c r="CM8" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CN8" t="s">
         <v>109</v>
@@ -4130,7 +4163,7 @@
         <v>109</v>
       </c>
       <c r="CQ8" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CR8" t="s">
         <v>109</v>
@@ -4186,16 +4219,22 @@
       <c r="DI8" t="s">
         <v>109</v>
       </c>
+      <c r="DJ8" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
         <v>209</v>
-      </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" t="s">
-        <v>211</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
@@ -4213,16 +4252,16 @@
         <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N9" t="s">
         <v>109</v>
@@ -4291,7 +4330,7 @@
         <v>109</v>
       </c>
       <c r="AJ9" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AK9" t="s">
         <v>109</v>
@@ -4300,7 +4339,7 @@
         <v>109</v>
       </c>
       <c r="AM9" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AN9" t="s">
         <v>109</v>
@@ -4315,42 +4354,39 @@
         <v>109</v>
       </c>
       <c r="AR9" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AS9" t="s">
         <v>109</v>
       </c>
       <c r="AT9" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AU9" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AV9" t="s">
         <v>109</v>
       </c>
       <c r="AW9" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AX9" t="s">
         <v>109</v>
       </c>
       <c r="AY9" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AZ9" t="s">
         <v>109</v>
       </c>
       <c r="BA9" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BB9" t="s">
         <v>109</v>
       </c>
       <c r="BC9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD9" t="s">
         <v>109</v>
       </c>
       <c r="BE9" t="s">
@@ -4360,16 +4396,13 @@
         <v>109</v>
       </c>
       <c r="BG9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BI9" t="s">
         <v>109</v>
       </c>
       <c r="BJ9" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BK9" t="s">
         <v>109</v>
@@ -4387,7 +4420,7 @@
         <v>109</v>
       </c>
       <c r="BP9" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BQ9" t="s">
         <v>109</v>
@@ -4420,7 +4453,7 @@
         <v>109</v>
       </c>
       <c r="CA9" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CB9" t="s">
         <v>109</v>
@@ -4438,7 +4471,7 @@
         <v>109</v>
       </c>
       <c r="CG9" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CH9" t="s">
         <v>109</v>
@@ -4447,7 +4480,7 @@
         <v>109</v>
       </c>
       <c r="CJ9" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CK9" t="s">
         <v>109</v>
@@ -4459,7 +4492,7 @@
         <v>109</v>
       </c>
       <c r="CN9" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CO9" t="s">
         <v>109</v>
@@ -4504,7 +4537,7 @@
         <v>109</v>
       </c>
       <c r="DC9" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DD9" t="s">
         <v>109</v>
@@ -4516,7 +4549,7 @@
         <v>109</v>
       </c>
       <c r="DG9" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DH9" t="s">
         <v>109</v>
@@ -4524,16 +4557,22 @@
       <c r="DI9" t="s">
         <v>109</v>
       </c>
+      <c r="DJ9" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" t="s">
         <v>212</v>
-      </c>
-      <c r="B10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" t="s">
-        <v>214</v>
       </c>
       <c r="E10" t="s">
         <v>101</v>
@@ -4551,22 +4590,22 @@
         <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P10" t="s">
         <v>194</v>
@@ -4688,9 +4727,6 @@
       <c r="BC10" t="s">
         <v>109</v>
       </c>
-      <c r="BD10" t="s">
-        <v>109</v>
-      </c>
       <c r="BE10" t="s">
         <v>109</v>
       </c>
@@ -4700,9 +4736,6 @@
       <c r="BG10" t="s">
         <v>109</v>
       </c>
-      <c r="BH10" t="s">
-        <v>109</v>
-      </c>
       <c r="BI10" t="s">
         <v>109</v>
       </c>
@@ -4800,7 +4833,7 @@
         <v>109</v>
       </c>
       <c r="CO10" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CP10" t="s">
         <v>109</v>
@@ -4812,7 +4845,7 @@
         <v>109</v>
       </c>
       <c r="CS10" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CT10" t="s">
         <v>109</v>
@@ -4862,16 +4895,22 @@
       <c r="DI10" t="s">
         <v>109</v>
       </c>
+      <c r="DJ10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" t="s">
         <v>213</v>
-      </c>
-      <c r="C11" t="s">
-        <v>215</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
@@ -4889,22 +4928,22 @@
         <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M11" t="s">
+        <v>337</v>
+      </c>
+      <c r="N11" t="s">
+        <v>338</v>
+      </c>
+      <c r="O11" t="s">
         <v>339</v>
-      </c>
-      <c r="N11" t="s">
-        <v>340</v>
-      </c>
-      <c r="O11" t="s">
-        <v>341</v>
       </c>
       <c r="P11" t="s">
         <v>194</v>
@@ -4970,7 +5009,7 @@
         <v>109</v>
       </c>
       <c r="AK11" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AL11" t="s">
         <v>109</v>
@@ -4979,7 +5018,7 @@
         <v>109</v>
       </c>
       <c r="AN11" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AO11" t="s">
         <v>109</v>
@@ -5015,22 +5054,19 @@
         <v>109</v>
       </c>
       <c r="AZ11" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BA11" t="s">
         <v>109</v>
       </c>
       <c r="BB11" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BC11" t="s">
         <v>109</v>
       </c>
-      <c r="BD11" t="s">
-        <v>109</v>
-      </c>
       <c r="BE11" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BF11" t="s">
         <v>109</v>
@@ -5038,9 +5074,6 @@
       <c r="BG11" t="s">
         <v>109</v>
       </c>
-      <c r="BH11" t="s">
-        <v>109</v>
-      </c>
       <c r="BI11" t="s">
         <v>109</v>
       </c>
@@ -5048,7 +5081,7 @@
         <v>109</v>
       </c>
       <c r="BK11" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BL11" t="s">
         <v>109</v>
@@ -5138,7 +5171,7 @@
         <v>109</v>
       </c>
       <c r="CO11" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CP11" t="s">
         <v>109</v>
@@ -5150,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="CS11" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CT11" t="s">
         <v>109</v>
@@ -5200,16 +5233,22 @@
       <c r="DI11" t="s">
         <v>109</v>
       </c>
+      <c r="DJ11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
@@ -5227,22 +5266,22 @@
         <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M12" t="s">
+        <v>338</v>
+      </c>
+      <c r="N12" t="s">
         <v>340</v>
       </c>
-      <c r="N12" t="s">
-        <v>342</v>
-      </c>
       <c r="O12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P12" t="s">
         <v>194</v>
@@ -5364,9 +5403,6 @@
       <c r="BC12" t="s">
         <v>109</v>
       </c>
-      <c r="BD12" t="s">
-        <v>109</v>
-      </c>
       <c r="BE12" t="s">
         <v>109</v>
       </c>
@@ -5376,9 +5412,6 @@
       <c r="BG12" t="s">
         <v>109</v>
       </c>
-      <c r="BH12" t="s">
-        <v>109</v>
-      </c>
       <c r="BI12" t="s">
         <v>109</v>
       </c>
@@ -5476,7 +5509,7 @@
         <v>109</v>
       </c>
       <c r="CO12" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CP12" t="s">
         <v>109</v>
@@ -5488,7 +5521,7 @@
         <v>109</v>
       </c>
       <c r="CS12" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CT12" t="s">
         <v>109</v>
@@ -5538,16 +5571,22 @@
       <c r="DI12" t="s">
         <v>109</v>
       </c>
+      <c r="DJ12" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" t="s">
         <v>217</v>
-      </c>
-      <c r="B13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" t="s">
-        <v>219</v>
       </c>
       <c r="E13" t="s">
         <v>101</v>
@@ -5565,25 +5604,25 @@
         <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="s">
         <v>109</v>
@@ -5640,7 +5679,7 @@
         <v>109</v>
       </c>
       <c r="AI13" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AJ13" t="s">
         <v>109</v>
@@ -5702,9 +5741,6 @@
       <c r="BC13" t="s">
         <v>109</v>
       </c>
-      <c r="BD13" t="s">
-        <v>109</v>
-      </c>
       <c r="BE13" t="s">
         <v>109</v>
       </c>
@@ -5714,9 +5750,6 @@
       <c r="BG13" t="s">
         <v>109</v>
       </c>
-      <c r="BH13" t="s">
-        <v>109</v>
-      </c>
       <c r="BI13" t="s">
         <v>109</v>
       </c>
@@ -5733,13 +5766,13 @@
         <v>109</v>
       </c>
       <c r="BN13" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BO13" t="s">
         <v>109</v>
       </c>
       <c r="BP13" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BQ13" t="s">
         <v>109</v>
@@ -5751,13 +5784,13 @@
         <v>109</v>
       </c>
       <c r="BT13" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BU13" t="s">
         <v>109</v>
       </c>
       <c r="BV13" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BW13" t="s">
         <v>109</v>
@@ -5775,7 +5808,7 @@
         <v>109</v>
       </c>
       <c r="CB13" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CC13" t="s">
         <v>109</v>
@@ -5784,7 +5817,7 @@
         <v>109</v>
       </c>
       <c r="CE13" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CF13" t="s">
         <v>109</v>
@@ -5793,7 +5826,7 @@
         <v>109</v>
       </c>
       <c r="CH13" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CI13" t="s">
         <v>109</v>
@@ -5838,7 +5871,7 @@
         <v>109</v>
       </c>
       <c r="CW13" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CX13" t="s">
         <v>109</v>
@@ -5850,10 +5883,10 @@
         <v>109</v>
       </c>
       <c r="DA13" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DB13" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DC13" t="s">
         <v>109</v>
@@ -5865,7 +5898,7 @@
         <v>109</v>
       </c>
       <c r="DF13" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DG13" t="s">
         <v>109</v>
@@ -5876,16 +5909,22 @@
       <c r="DI13" t="s">
         <v>109</v>
       </c>
+      <c r="DJ13" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
         <v>220</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" t="s">
-        <v>222</v>
       </c>
       <c r="E14" t="s">
         <v>101</v>
@@ -5903,22 +5942,22 @@
         <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P14" t="s">
         <v>194</v>
@@ -5960,16 +5999,16 @@
         <v>109</v>
       </c>
       <c r="AC14" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AD14" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AE14" t="s">
         <v>109</v>
       </c>
       <c r="AF14" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AG14" t="s">
         <v>109</v>
@@ -5987,7 +6026,7 @@
         <v>109</v>
       </c>
       <c r="AL14" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM14" t="s">
         <v>109</v>
@@ -5999,16 +6038,16 @@
         <v>109</v>
       </c>
       <c r="AP14" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ14" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AR14" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS14" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AT14" t="s">
         <v>109</v>
@@ -6040,23 +6079,17 @@
       <c r="BC14" t="s">
         <v>109</v>
       </c>
-      <c r="BD14" t="s">
-        <v>109</v>
-      </c>
       <c r="BE14" t="s">
         <v>109</v>
       </c>
       <c r="BF14" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BG14" t="s">
         <v>109</v>
       </c>
-      <c r="BH14" t="s">
-        <v>109</v>
-      </c>
       <c r="BI14" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BJ14" t="s">
         <v>109</v>
@@ -6083,7 +6116,7 @@
         <v>109</v>
       </c>
       <c r="BR14" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BS14" t="s">
         <v>109</v>
@@ -6104,7 +6137,7 @@
         <v>109</v>
       </c>
       <c r="BY14" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BZ14" t="s">
         <v>109</v>
@@ -6122,7 +6155,7 @@
         <v>109</v>
       </c>
       <c r="CE14" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CF14" t="s">
         <v>109</v>
@@ -6155,7 +6188,7 @@
         <v>109</v>
       </c>
       <c r="CP14" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ14" t="s">
         <v>109</v>
@@ -6179,10 +6212,10 @@
         <v>109</v>
       </c>
       <c r="CX14" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CY14" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CZ14" t="s">
         <v>109</v>
@@ -6194,7 +6227,7 @@
         <v>109</v>
       </c>
       <c r="DC14" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DD14" t="s">
         <v>109</v>
@@ -6209,21 +6242,27 @@
         <v>109</v>
       </c>
       <c r="DH14" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DI14" t="s">
         <v>109</v>
       </c>
+      <c r="DJ14" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
         <v>221</v>
-      </c>
-      <c r="C15" t="s">
-        <v>223</v>
       </c>
       <c r="E15" t="s">
         <v>101</v>
@@ -6241,25 +6280,25 @@
         <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M15" t="s">
+        <v>341</v>
+      </c>
+      <c r="N15" t="s">
         <v>343</v>
       </c>
-      <c r="N15" t="s">
-        <v>345</v>
-      </c>
       <c r="O15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q15" t="s">
         <v>109</v>
@@ -6298,16 +6337,16 @@
         <v>109</v>
       </c>
       <c r="AC15" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AD15" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AE15" t="s">
         <v>109</v>
       </c>
       <c r="AF15" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AG15" t="s">
         <v>109</v>
@@ -6325,7 +6364,7 @@
         <v>109</v>
       </c>
       <c r="AL15" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM15" t="s">
         <v>109</v>
@@ -6337,16 +6376,16 @@
         <v>109</v>
       </c>
       <c r="AP15" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ15" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AR15" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS15" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AT15" t="s">
         <v>109</v>
@@ -6378,23 +6417,17 @@
       <c r="BC15" t="s">
         <v>109</v>
       </c>
-      <c r="BD15" t="s">
-        <v>109</v>
-      </c>
       <c r="BE15" t="s">
         <v>109</v>
       </c>
       <c r="BF15" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BG15" t="s">
         <v>109</v>
       </c>
-      <c r="BH15" t="s">
-        <v>109</v>
-      </c>
       <c r="BI15" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BJ15" t="s">
         <v>109</v>
@@ -6421,7 +6454,7 @@
         <v>109</v>
       </c>
       <c r="BR15" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BS15" t="s">
         <v>109</v>
@@ -6442,7 +6475,7 @@
         <v>109</v>
       </c>
       <c r="BY15" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BZ15" t="s">
         <v>109</v>
@@ -6460,7 +6493,7 @@
         <v>109</v>
       </c>
       <c r="CE15" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CF15" t="s">
         <v>109</v>
@@ -6493,7 +6526,7 @@
         <v>109</v>
       </c>
       <c r="CP15" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ15" t="s">
         <v>109</v>
@@ -6517,10 +6550,10 @@
         <v>109</v>
       </c>
       <c r="CX15" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CY15" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CZ15" t="s">
         <v>109</v>
@@ -6532,7 +6565,7 @@
         <v>109</v>
       </c>
       <c r="DC15" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DD15" t="s">
         <v>109</v>
@@ -6547,21 +6580,27 @@
         <v>109</v>
       </c>
       <c r="DH15" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DI15" t="s">
         <v>109</v>
       </c>
+      <c r="DJ15" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E16" t="s">
         <v>101</v>
@@ -6579,25 +6618,25 @@
         <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="s">
         <v>109</v>
@@ -6636,16 +6675,16 @@
         <v>109</v>
       </c>
       <c r="AC16" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AD16" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AE16" t="s">
         <v>109</v>
       </c>
       <c r="AF16" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AG16" t="s">
         <v>109</v>
@@ -6663,7 +6702,7 @@
         <v>109</v>
       </c>
       <c r="AL16" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM16" t="s">
         <v>109</v>
@@ -6675,16 +6714,16 @@
         <v>109</v>
       </c>
       <c r="AP16" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ16" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AR16" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS16" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AT16" t="s">
         <v>109</v>
@@ -6716,23 +6755,17 @@
       <c r="BC16" t="s">
         <v>109</v>
       </c>
-      <c r="BD16" t="s">
-        <v>109</v>
-      </c>
       <c r="BE16" t="s">
         <v>109</v>
       </c>
       <c r="BF16" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BG16" t="s">
         <v>109</v>
       </c>
-      <c r="BH16" t="s">
-        <v>109</v>
-      </c>
       <c r="BI16" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BJ16" t="s">
         <v>109</v>
@@ -6759,7 +6792,7 @@
         <v>109</v>
       </c>
       <c r="BR16" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BS16" t="s">
         <v>109</v>
@@ -6780,7 +6813,7 @@
         <v>109</v>
       </c>
       <c r="BY16" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BZ16" t="s">
         <v>109</v>
@@ -6798,7 +6831,7 @@
         <v>109</v>
       </c>
       <c r="CE16" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CF16" t="s">
         <v>109</v>
@@ -6831,7 +6864,7 @@
         <v>109</v>
       </c>
       <c r="CP16" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ16" t="s">
         <v>109</v>
@@ -6855,10 +6888,10 @@
         <v>109</v>
       </c>
       <c r="CX16" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CY16" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CZ16" t="s">
         <v>109</v>
@@ -6870,7 +6903,7 @@
         <v>109</v>
       </c>
       <c r="DC16" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DD16" t="s">
         <v>109</v>
@@ -6885,21 +6918,27 @@
         <v>109</v>
       </c>
       <c r="DH16" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DI16" t="s">
         <v>109</v>
       </c>
+      <c r="DJ16" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="17" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" t="s">
         <v>225</v>
-      </c>
-      <c r="B17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" t="s">
-        <v>227</v>
       </c>
       <c r="E17" t="s">
         <v>101</v>
@@ -6917,22 +6956,22 @@
         <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P17" t="s">
         <v>194</v>
@@ -7054,9 +7093,6 @@
       <c r="BC17" t="s">
         <v>109</v>
       </c>
-      <c r="BD17" t="s">
-        <v>109</v>
-      </c>
       <c r="BE17" t="s">
         <v>109</v>
       </c>
@@ -7066,9 +7102,6 @@
       <c r="BG17" t="s">
         <v>109</v>
       </c>
-      <c r="BH17" t="s">
-        <v>109</v>
-      </c>
       <c r="BI17" t="s">
         <v>109</v>
       </c>
@@ -7220,7 +7253,7 @@
         <v>109</v>
       </c>
       <c r="DG17" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DH17" t="s">
         <v>109</v>
@@ -7228,16 +7261,22 @@
       <c r="DI17" t="s">
         <v>109</v>
       </c>
+      <c r="DJ17" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK17" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="18" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" t="s">
         <v>228</v>
-      </c>
-      <c r="B18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" t="s">
-        <v>230</v>
       </c>
       <c r="E18" t="s">
         <v>101</v>
@@ -7255,22 +7294,22 @@
         <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P18" t="s">
         <v>194</v>
@@ -7312,7 +7351,7 @@
         <v>109</v>
       </c>
       <c r="AC18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AD18" t="s">
         <v>109</v>
@@ -7321,7 +7360,7 @@
         <v>109</v>
       </c>
       <c r="AF18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AG18" t="s">
         <v>109</v>
@@ -7345,19 +7384,19 @@
         <v>109</v>
       </c>
       <c r="AN18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AO18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AP18" t="s">
         <v>198</v>
       </c>
       <c r="AQ18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AR18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS18" t="s">
         <v>109</v>
@@ -7392,9 +7431,6 @@
       <c r="BC18" t="s">
         <v>109</v>
       </c>
-      <c r="BD18" t="s">
-        <v>109</v>
-      </c>
       <c r="BE18" t="s">
         <v>109</v>
       </c>
@@ -7404,11 +7440,8 @@
       <c r="BG18" t="s">
         <v>109</v>
       </c>
-      <c r="BH18" t="s">
-        <v>109</v>
-      </c>
       <c r="BI18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BJ18" t="s">
         <v>109</v>
@@ -7426,10 +7459,10 @@
         <v>109</v>
       </c>
       <c r="BO18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BP18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BQ18" t="s">
         <v>109</v>
@@ -7444,10 +7477,10 @@
         <v>109</v>
       </c>
       <c r="BU18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BV18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BW18" t="s">
         <v>109</v>
@@ -7462,7 +7495,7 @@
         <v>109</v>
       </c>
       <c r="CA18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CB18" t="s">
         <v>109</v>
@@ -7495,7 +7528,7 @@
         <v>109</v>
       </c>
       <c r="CL18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CM18" t="s">
         <v>109</v>
@@ -7510,16 +7543,16 @@
         <v>198</v>
       </c>
       <c r="CQ18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CR18" t="s">
         <v>109</v>
       </c>
       <c r="CS18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CT18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CU18" t="s">
         <v>198</v>
@@ -7528,16 +7561,16 @@
         <v>109</v>
       </c>
       <c r="CW18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CX18" t="s">
         <v>109</v>
       </c>
       <c r="CY18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CZ18" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DA18" t="s">
         <v>109</v>
@@ -7549,7 +7582,7 @@
         <v>109</v>
       </c>
       <c r="DD18" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DE18" t="s">
         <v>109</v>
@@ -7566,16 +7599,22 @@
       <c r="DI18" t="s">
         <v>109</v>
       </c>
+      <c r="DJ18" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK18" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="19" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
         <v>231</v>
-      </c>
-      <c r="B19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" t="s">
-        <v>233</v>
       </c>
       <c r="E19" t="s">
         <v>101</v>
@@ -7593,22 +7632,22 @@
         <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P19" t="s">
         <v>194</v>
@@ -7650,7 +7689,7 @@
         <v>109</v>
       </c>
       <c r="AC19" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AD19" t="s">
         <v>109</v>
@@ -7659,7 +7698,7 @@
         <v>109</v>
       </c>
       <c r="AF19" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AG19" t="s">
         <v>109</v>
@@ -7689,25 +7728,25 @@
         <v>109</v>
       </c>
       <c r="AP19" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ19" t="s">
         <v>109</v>
       </c>
       <c r="AR19" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS19" t="s">
         <v>109</v>
       </c>
       <c r="AT19" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AU19" t="s">
         <v>109</v>
       </c>
       <c r="AV19" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AW19" t="s">
         <v>109</v>
@@ -7728,9 +7767,6 @@
         <v>109</v>
       </c>
       <c r="BC19" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD19" t="s">
         <v>109</v>
       </c>
       <c r="BE19" t="s">
@@ -7740,10 +7776,7 @@
         <v>109</v>
       </c>
       <c r="BG19" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BI19" t="s">
         <v>109</v>
@@ -7767,7 +7800,7 @@
         <v>109</v>
       </c>
       <c r="BP19" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BQ19" t="s">
         <v>109</v>
@@ -7785,7 +7818,7 @@
         <v>109</v>
       </c>
       <c r="BV19" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BW19" t="s">
         <v>109</v>
@@ -7839,7 +7872,7 @@
         <v>109</v>
       </c>
       <c r="CN19" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CO19" t="s">
         <v>109</v>
@@ -7851,7 +7884,7 @@
         <v>109</v>
       </c>
       <c r="CR19" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CS19" t="s">
         <v>109</v>
@@ -7904,16 +7937,22 @@
       <c r="DI19" t="s">
         <v>109</v>
       </c>
+      <c r="DJ19" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK19" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="20" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" t="s">
         <v>234</v>
-      </c>
-      <c r="B20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" t="s">
-        <v>236</v>
       </c>
       <c r="E20" t="s">
         <v>101</v>
@@ -7931,25 +7970,25 @@
         <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="s">
         <v>109</v>
@@ -7988,16 +8027,16 @@
         <v>109</v>
       </c>
       <c r="AC20" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AD20" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AE20" t="s">
         <v>109</v>
       </c>
       <c r="AF20" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AG20" t="s">
         <v>109</v>
@@ -8015,7 +8054,7 @@
         <v>109</v>
       </c>
       <c r="AL20" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AM20" t="s">
         <v>109</v>
@@ -8027,13 +8066,13 @@
         <v>109</v>
       </c>
       <c r="AP20" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ20" t="s">
         <v>109</v>
       </c>
       <c r="AR20" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS20" t="s">
         <v>109</v>
@@ -8068,9 +8107,6 @@
       <c r="BC20" t="s">
         <v>109</v>
       </c>
-      <c r="BD20" t="s">
-        <v>198</v>
-      </c>
       <c r="BE20" t="s">
         <v>109</v>
       </c>
@@ -8080,14 +8116,11 @@
       <c r="BG20" t="s">
         <v>109</v>
       </c>
-      <c r="BH20" t="s">
-        <v>109</v>
-      </c>
       <c r="BI20" t="s">
         <v>109</v>
       </c>
       <c r="BJ20" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BK20" t="s">
         <v>109</v>
@@ -8105,7 +8138,7 @@
         <v>109</v>
       </c>
       <c r="BP20" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BQ20" t="s">
         <v>109</v>
@@ -8123,7 +8156,7 @@
         <v>109</v>
       </c>
       <c r="BV20" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BW20" t="s">
         <v>109</v>
@@ -8183,7 +8216,7 @@
         <v>109</v>
       </c>
       <c r="CP20" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ20" t="s">
         <v>109</v>
@@ -8195,7 +8228,7 @@
         <v>109</v>
       </c>
       <c r="CT20" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CU20" t="s">
         <v>109</v>
@@ -8242,16 +8275,22 @@
       <c r="DI20" t="s">
         <v>109</v>
       </c>
+      <c r="DJ20" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK20" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="21" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
         <v>237</v>
-      </c>
-      <c r="B21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" t="s">
-        <v>239</v>
       </c>
       <c r="E21" t="s">
         <v>101</v>
@@ -8269,22 +8308,22 @@
         <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N21" t="s">
+        <v>337</v>
+      </c>
+      <c r="O21" t="s">
         <v>339</v>
-      </c>
-      <c r="O21" t="s">
-        <v>341</v>
       </c>
       <c r="P21" t="s">
         <v>194</v>
@@ -8365,13 +8404,13 @@
         <v>109</v>
       </c>
       <c r="AP21" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ21" t="s">
         <v>109</v>
       </c>
       <c r="AR21" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS21" t="s">
         <v>109</v>
@@ -8406,9 +8445,6 @@
       <c r="BC21" t="s">
         <v>109</v>
       </c>
-      <c r="BD21" t="s">
-        <v>109</v>
-      </c>
       <c r="BE21" t="s">
         <v>109</v>
       </c>
@@ -8418,9 +8454,6 @@
       <c r="BG21" t="s">
         <v>109</v>
       </c>
-      <c r="BH21" t="s">
-        <v>109</v>
-      </c>
       <c r="BI21" t="s">
         <v>109</v>
       </c>
@@ -8437,7 +8470,7 @@
         <v>109</v>
       </c>
       <c r="BN21" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BO21" t="s">
         <v>109</v>
@@ -8452,10 +8485,10 @@
         <v>109</v>
       </c>
       <c r="BS21" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BT21" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BU21" t="s">
         <v>109</v>
@@ -8470,7 +8503,7 @@
         <v>109</v>
       </c>
       <c r="BY21" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BZ21" t="s">
         <v>109</v>
@@ -8545,7 +8578,7 @@
         <v>109</v>
       </c>
       <c r="CX21" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CY21" t="s">
         <v>109</v>
@@ -8557,7 +8590,7 @@
         <v>109</v>
       </c>
       <c r="DB21" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DC21" t="s">
         <v>109</v>
@@ -8580,16 +8613,22 @@
       <c r="DI21" t="s">
         <v>109</v>
       </c>
+      <c r="DJ21" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK21" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="22" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
         <v>238</v>
-      </c>
-      <c r="C22" t="s">
-        <v>240</v>
       </c>
       <c r="E22" t="s">
         <v>101</v>
@@ -8607,22 +8646,22 @@
         <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P22" t="s">
         <v>194</v>
@@ -8703,13 +8742,13 @@
         <v>109</v>
       </c>
       <c r="AP22" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ22" t="s">
         <v>109</v>
       </c>
       <c r="AR22" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS22" t="s">
         <v>109</v>
@@ -8744,9 +8783,6 @@
       <c r="BC22" t="s">
         <v>109</v>
       </c>
-      <c r="BD22" t="s">
-        <v>109</v>
-      </c>
       <c r="BE22" t="s">
         <v>109</v>
       </c>
@@ -8756,9 +8792,6 @@
       <c r="BG22" t="s">
         <v>109</v>
       </c>
-      <c r="BH22" t="s">
-        <v>109</v>
-      </c>
       <c r="BI22" t="s">
         <v>109</v>
       </c>
@@ -8859,7 +8892,7 @@
         <v>109</v>
       </c>
       <c r="CP22" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ22" t="s">
         <v>109</v>
@@ -8871,7 +8904,7 @@
         <v>109</v>
       </c>
       <c r="CT22" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CU22" t="s">
         <v>109</v>
@@ -8883,7 +8916,7 @@
         <v>109</v>
       </c>
       <c r="CX22" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CY22" t="s">
         <v>109</v>
@@ -8895,7 +8928,7 @@
         <v>109</v>
       </c>
       <c r="DB22" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DC22" t="s">
         <v>109</v>
@@ -8918,16 +8951,22 @@
       <c r="DI22" t="s">
         <v>109</v>
       </c>
+      <c r="DJ22" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK22" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="23" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
         <v>101</v>
@@ -8945,22 +8984,22 @@
         <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P23" t="s">
         <v>194</v>
@@ -9041,13 +9080,13 @@
         <v>109</v>
       </c>
       <c r="AP23" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ23" t="s">
         <v>109</v>
       </c>
       <c r="AR23" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS23" t="s">
         <v>109</v>
@@ -9082,9 +9121,6 @@
       <c r="BC23" t="s">
         <v>109</v>
       </c>
-      <c r="BD23" t="s">
-        <v>109</v>
-      </c>
       <c r="BE23" t="s">
         <v>109</v>
       </c>
@@ -9094,9 +9130,6 @@
       <c r="BG23" t="s">
         <v>109</v>
       </c>
-      <c r="BH23" t="s">
-        <v>109</v>
-      </c>
       <c r="BI23" t="s">
         <v>109</v>
       </c>
@@ -9113,7 +9146,7 @@
         <v>109</v>
       </c>
       <c r="BN23" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BO23" t="s">
         <v>109</v>
@@ -9131,13 +9164,13 @@
         <v>109</v>
       </c>
       <c r="BT23" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BU23" t="s">
         <v>109</v>
       </c>
       <c r="BV23" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BW23" t="s">
         <v>109</v>
@@ -9155,7 +9188,7 @@
         <v>109</v>
       </c>
       <c r="CB23" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CC23" t="s">
         <v>109</v>
@@ -9221,7 +9254,7 @@
         <v>109</v>
       </c>
       <c r="CX23" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CY23" t="s">
         <v>109</v>
@@ -9233,7 +9266,7 @@
         <v>109</v>
       </c>
       <c r="DB23" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DC23" t="s">
         <v>109</v>
@@ -9256,16 +9289,22 @@
       <c r="DI23" t="s">
         <v>109</v>
       </c>
+      <c r="DJ23" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK23" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="24" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
         <v>101</v>
@@ -9283,22 +9322,22 @@
         <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N24" t="s">
+        <v>337</v>
+      </c>
+      <c r="O24" t="s">
         <v>339</v>
-      </c>
-      <c r="O24" t="s">
-        <v>341</v>
       </c>
       <c r="P24" t="s">
         <v>194</v>
@@ -9379,13 +9418,13 @@
         <v>109</v>
       </c>
       <c r="AP24" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ24" t="s">
         <v>109</v>
       </c>
       <c r="AR24" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS24" t="s">
         <v>109</v>
@@ -9420,9 +9459,6 @@
       <c r="BC24" t="s">
         <v>109</v>
       </c>
-      <c r="BD24" t="s">
-        <v>109</v>
-      </c>
       <c r="BE24" t="s">
         <v>109</v>
       </c>
@@ -9432,9 +9468,6 @@
       <c r="BG24" t="s">
         <v>109</v>
       </c>
-      <c r="BH24" t="s">
-        <v>109</v>
-      </c>
       <c r="BI24" t="s">
         <v>109</v>
       </c>
@@ -9451,7 +9484,7 @@
         <v>109</v>
       </c>
       <c r="BN24" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BO24" t="s">
         <v>109</v>
@@ -9469,13 +9502,13 @@
         <v>109</v>
       </c>
       <c r="BT24" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BU24" t="s">
         <v>109</v>
       </c>
       <c r="BV24" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BW24" t="s">
         <v>109</v>
@@ -9493,7 +9526,7 @@
         <v>109</v>
       </c>
       <c r="CB24" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CC24" t="s">
         <v>109</v>
@@ -9559,7 +9592,7 @@
         <v>109</v>
       </c>
       <c r="CX24" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CY24" t="s">
         <v>109</v>
@@ -9571,7 +9604,7 @@
         <v>109</v>
       </c>
       <c r="DB24" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DC24" t="s">
         <v>109</v>
@@ -9594,16 +9627,22 @@
       <c r="DI24" t="s">
         <v>109</v>
       </c>
+      <c r="DJ24" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK24" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="25" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E25" t="s">
         <v>101</v>
@@ -9621,22 +9660,22 @@
         <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s">
+        <v>336</v>
+      </c>
+      <c r="N25" t="s">
         <v>338</v>
       </c>
-      <c r="N25" t="s">
-        <v>340</v>
-      </c>
       <c r="O25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P25" t="s">
         <v>194</v>
@@ -9758,9 +9797,6 @@
       <c r="BC25" t="s">
         <v>109</v>
       </c>
-      <c r="BD25" t="s">
-        <v>109</v>
-      </c>
       <c r="BE25" t="s">
         <v>109</v>
       </c>
@@ -9770,9 +9806,6 @@
       <c r="BG25" t="s">
         <v>109</v>
       </c>
-      <c r="BH25" t="s">
-        <v>109</v>
-      </c>
       <c r="BI25" t="s">
         <v>109</v>
       </c>
@@ -9813,7 +9846,7 @@
         <v>109</v>
       </c>
       <c r="BV25" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BW25" t="s">
         <v>109</v>
@@ -9831,7 +9864,7 @@
         <v>109</v>
       </c>
       <c r="CB25" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CC25" t="s">
         <v>109</v>
@@ -9858,7 +9891,7 @@
         <v>109</v>
       </c>
       <c r="CK25" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CL25" t="s">
         <v>109</v>
@@ -9870,7 +9903,7 @@
         <v>109</v>
       </c>
       <c r="CO25" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CP25" t="s">
         <v>109</v>
@@ -9897,7 +9930,7 @@
         <v>109</v>
       </c>
       <c r="CX25" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CY25" t="s">
         <v>109</v>
@@ -9909,7 +9942,7 @@
         <v>109</v>
       </c>
       <c r="DB25" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DC25" t="s">
         <v>109</v>
@@ -9932,16 +9965,22 @@
       <c r="DI25" t="s">
         <v>109</v>
       </c>
+      <c r="DJ25" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK25" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="26" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
         <v>101</v>
@@ -9959,22 +9998,22 @@
         <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P26" t="s">
         <v>194</v>
@@ -10055,13 +10094,13 @@
         <v>109</v>
       </c>
       <c r="AP26" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ26" t="s">
         <v>109</v>
       </c>
       <c r="AR26" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS26" t="s">
         <v>109</v>
@@ -10096,9 +10135,6 @@
       <c r="BC26" t="s">
         <v>109</v>
       </c>
-      <c r="BD26" t="s">
-        <v>109</v>
-      </c>
       <c r="BE26" t="s">
         <v>109</v>
       </c>
@@ -10108,9 +10144,6 @@
       <c r="BG26" t="s">
         <v>109</v>
       </c>
-      <c r="BH26" t="s">
-        <v>109</v>
-      </c>
       <c r="BI26" t="s">
         <v>109</v>
       </c>
@@ -10151,7 +10184,7 @@
         <v>109</v>
       </c>
       <c r="BV26" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BW26" t="s">
         <v>109</v>
@@ -10169,7 +10202,7 @@
         <v>109</v>
       </c>
       <c r="CB26" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CC26" t="s">
         <v>109</v>
@@ -10211,7 +10244,7 @@
         <v>109</v>
       </c>
       <c r="CP26" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ26" t="s">
         <v>109</v>
@@ -10223,7 +10256,7 @@
         <v>109</v>
       </c>
       <c r="CT26" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CU26" t="s">
         <v>109</v>
@@ -10235,7 +10268,7 @@
         <v>109</v>
       </c>
       <c r="CX26" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CY26" t="s">
         <v>109</v>
@@ -10247,7 +10280,7 @@
         <v>109</v>
       </c>
       <c r="DB26" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DC26" t="s">
         <v>109</v>
@@ -10270,16 +10303,22 @@
       <c r="DI26" t="s">
         <v>109</v>
       </c>
+      <c r="DJ26" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK26" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="27" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
         <v>245</v>
-      </c>
-      <c r="B27" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27" t="s">
-        <v>247</v>
       </c>
       <c r="E27" t="s">
         <v>101</v>
@@ -10297,22 +10336,22 @@
         <v>105</v>
       </c>
       <c r="J27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O27" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P27" t="s">
         <v>194</v>
@@ -10354,7 +10393,7 @@
         <v>109</v>
       </c>
       <c r="AC27" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AD27" t="s">
         <v>109</v>
@@ -10363,7 +10402,7 @@
         <v>109</v>
       </c>
       <c r="AF27" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AG27" t="s">
         <v>109</v>
@@ -10414,13 +10453,13 @@
         <v>109</v>
       </c>
       <c r="AW27" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AX27" t="s">
         <v>109</v>
       </c>
       <c r="AY27" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AZ27" t="s">
         <v>109</v>
@@ -10434,11 +10473,8 @@
       <c r="BC27" t="s">
         <v>109</v>
       </c>
-      <c r="BD27" t="s">
-        <v>109</v>
-      </c>
       <c r="BE27" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BF27" t="s">
         <v>109</v>
@@ -10446,9 +10482,6 @@
       <c r="BG27" t="s">
         <v>109</v>
       </c>
-      <c r="BH27" t="s">
-        <v>109</v>
-      </c>
       <c r="BI27" t="s">
         <v>109</v>
       </c>
@@ -10456,7 +10489,7 @@
         <v>109</v>
       </c>
       <c r="BK27" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BL27" t="s">
         <v>109</v>
@@ -10471,10 +10504,10 @@
         <v>109</v>
       </c>
       <c r="BP27" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BQ27" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BR27" t="s">
         <v>109</v>
@@ -10489,10 +10522,10 @@
         <v>109</v>
       </c>
       <c r="BV27" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BW27" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BX27" t="s">
         <v>109</v>
@@ -10549,7 +10582,7 @@
         <v>109</v>
       </c>
       <c r="CP27" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ27" t="s">
         <v>109</v>
@@ -10564,7 +10597,7 @@
         <v>198</v>
       </c>
       <c r="CU27" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CV27" t="s">
         <v>109</v>
@@ -10573,10 +10606,10 @@
         <v>109</v>
       </c>
       <c r="CX27" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CY27" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CZ27" t="s">
         <v>109</v>
@@ -10608,16 +10641,22 @@
       <c r="DI27" t="s">
         <v>109</v>
       </c>
+      <c r="DJ27" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK27" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="28" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" t="s">
         <v>248</v>
-      </c>
-      <c r="B28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" t="s">
-        <v>250</v>
       </c>
       <c r="E28" t="s">
         <v>101</v>
@@ -10635,25 +10674,25 @@
         <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="s">
         <v>109</v>
@@ -10692,7 +10731,7 @@
         <v>109</v>
       </c>
       <c r="AC28" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AD28" t="s">
         <v>109</v>
@@ -10701,7 +10740,7 @@
         <v>109</v>
       </c>
       <c r="AF28" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s">
         <v>109</v>
@@ -10731,13 +10770,13 @@
         <v>109</v>
       </c>
       <c r="AP28" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ28" t="s">
         <v>109</v>
       </c>
       <c r="AR28" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS28" t="s">
         <v>109</v>
@@ -10767,26 +10806,20 @@
         <v>109</v>
       </c>
       <c r="BB28" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BC28" t="s">
         <v>109</v>
       </c>
-      <c r="BD28" t="s">
-        <v>109</v>
-      </c>
       <c r="BE28" t="s">
         <v>109</v>
       </c>
       <c r="BF28" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BG28" t="s">
         <v>109</v>
       </c>
-      <c r="BH28" t="s">
-        <v>109</v>
-      </c>
       <c r="BI28" t="s">
         <v>109</v>
       </c>
@@ -10887,7 +10920,7 @@
         <v>109</v>
       </c>
       <c r="CP28" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ28" t="s">
         <v>109</v>
@@ -10899,37 +10932,37 @@
         <v>109</v>
       </c>
       <c r="CT28" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CU28" t="s">
         <v>109</v>
       </c>
       <c r="CV28" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CW28" t="s">
         <v>109</v>
       </c>
       <c r="CX28" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CY28" t="s">
         <v>109</v>
       </c>
       <c r="CZ28" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DA28" t="s">
         <v>109</v>
       </c>
       <c r="DB28" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DC28" t="s">
         <v>109</v>
       </c>
       <c r="DD28" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DE28" t="s">
         <v>109</v>
@@ -10941,21 +10974,27 @@
         <v>109</v>
       </c>
       <c r="DH28" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="DI28" t="s">
         <v>109</v>
       </c>
+      <c r="DJ28" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK28" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" t="s">
         <v>251</v>
-      </c>
-      <c r="B29" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" t="s">
-        <v>253</v>
       </c>
       <c r="E29" t="s">
         <v>101</v>
@@ -10973,22 +11012,22 @@
         <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P29" t="s">
         <v>194</v>
@@ -11030,28 +11069,28 @@
         <v>109</v>
       </c>
       <c r="AC29" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AD29" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AE29" t="s">
         <v>109</v>
       </c>
       <c r="AF29" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AG29" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AH29" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AI29" t="s">
         <v>109</v>
       </c>
       <c r="AJ29" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AK29" t="s">
         <v>109</v>
@@ -11069,13 +11108,13 @@
         <v>109</v>
       </c>
       <c r="AP29" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ29" t="s">
         <v>109</v>
       </c>
       <c r="AR29" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS29" t="s">
         <v>109</v>
@@ -11093,24 +11132,21 @@
         <v>109</v>
       </c>
       <c r="AX29" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AY29" t="s">
         <v>109</v>
       </c>
       <c r="AZ29" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BA29" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BB29" t="s">
         <v>109</v>
       </c>
       <c r="BC29" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD29" t="s">
         <v>109</v>
       </c>
       <c r="BE29" t="s">
@@ -11120,10 +11156,7 @@
         <v>109</v>
       </c>
       <c r="BG29" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BI29" t="s">
         <v>109</v>
@@ -11132,7 +11165,7 @@
         <v>109</v>
       </c>
       <c r="BK29" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BL29" t="s">
         <v>109</v>
@@ -11141,7 +11174,7 @@
         <v>109</v>
       </c>
       <c r="BN29" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BO29" t="s">
         <v>109</v>
@@ -11159,7 +11192,7 @@
         <v>109</v>
       </c>
       <c r="BT29" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="BU29" t="s">
         <v>109</v>
@@ -11225,7 +11258,7 @@
         <v>109</v>
       </c>
       <c r="CP29" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ29" t="s">
         <v>109</v>
@@ -11237,7 +11270,7 @@
         <v>109</v>
       </c>
       <c r="CT29" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CU29" t="s">
         <v>109</v>
@@ -11270,7 +11303,7 @@
         <v>109</v>
       </c>
       <c r="DE29" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="DF29" t="s">
         <v>109</v>
@@ -11282,18 +11315,24 @@
         <v>109</v>
       </c>
       <c r="DI29" t="s">
+        <v>198</v>
+      </c>
+      <c r="DJ29" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" t="s">
         <v>254</v>
-      </c>
-      <c r="B30" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" t="s">
-        <v>256</v>
       </c>
       <c r="E30" t="s">
         <v>101</v>
@@ -11311,25 +11350,25 @@
         <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="s">
         <v>109</v>
@@ -11428,13 +11467,13 @@
         <v>109</v>
       </c>
       <c r="AW30" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AX30" t="s">
         <v>109</v>
       </c>
       <c r="AY30" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AZ30" t="s">
         <v>109</v>
@@ -11448,9 +11487,6 @@
       <c r="BC30" t="s">
         <v>109</v>
       </c>
-      <c r="BD30" t="s">
-        <v>109</v>
-      </c>
       <c r="BE30" t="s">
         <v>109</v>
       </c>
@@ -11460,9 +11496,6 @@
       <c r="BG30" t="s">
         <v>109</v>
       </c>
-      <c r="BH30" t="s">
-        <v>109</v>
-      </c>
       <c r="BI30" t="s">
         <v>109</v>
       </c>
@@ -11509,7 +11542,7 @@
         <v>109</v>
       </c>
       <c r="BX30" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="BY30" t="s">
         <v>109</v>
@@ -11527,7 +11560,7 @@
         <v>109</v>
       </c>
       <c r="CD30" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CE30" t="s">
         <v>109</v>
@@ -11622,16 +11655,22 @@
       <c r="DI30" t="s">
         <v>109</v>
       </c>
+      <c r="DJ30" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK30" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="31" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" t="s">
         <v>257</v>
-      </c>
-      <c r="B31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C31" t="s">
-        <v>259</v>
       </c>
       <c r="E31" t="s">
         <v>101</v>
@@ -11649,22 +11688,22 @@
         <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P31" t="s">
         <v>194</v>
@@ -11715,7 +11754,7 @@
         <v>109</v>
       </c>
       <c r="AF31" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AG31" t="s">
         <v>109</v>
@@ -11745,13 +11784,13 @@
         <v>109</v>
       </c>
       <c r="AP31" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ31" t="s">
         <v>109</v>
       </c>
       <c r="AR31" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS31" t="s">
         <v>109</v>
@@ -11763,13 +11802,13 @@
         <v>109</v>
       </c>
       <c r="AV31" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AW31" t="s">
         <v>109</v>
       </c>
       <c r="AX31" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AY31" t="s">
         <v>109</v>
@@ -11786,9 +11825,6 @@
       <c r="BC31" t="s">
         <v>109</v>
       </c>
-      <c r="BD31" t="s">
-        <v>109</v>
-      </c>
       <c r="BE31" t="s">
         <v>109</v>
       </c>
@@ -11798,9 +11834,6 @@
       <c r="BG31" t="s">
         <v>109</v>
       </c>
-      <c r="BH31" t="s">
-        <v>109</v>
-      </c>
       <c r="BI31" t="s">
         <v>109</v>
       </c>
@@ -11901,7 +11934,7 @@
         <v>109</v>
       </c>
       <c r="CP31" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ31" t="s">
         <v>109</v>
@@ -11913,7 +11946,7 @@
         <v>109</v>
       </c>
       <c r="CT31" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CU31" t="s">
         <v>109</v>
@@ -11958,18 +11991,24 @@
         <v>109</v>
       </c>
       <c r="DI31" t="s">
-        <v>198</v>
+        <v>109</v>
+      </c>
+      <c r="DJ31" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK31" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" t="s">
         <v>258</v>
-      </c>
-      <c r="C32" t="s">
-        <v>260</v>
       </c>
       <c r="E32" t="s">
         <v>101</v>
@@ -11987,22 +12026,22 @@
         <v>105</v>
       </c>
       <c r="J32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P32" t="s">
         <v>194</v>
@@ -12053,7 +12092,7 @@
         <v>109</v>
       </c>
       <c r="AF32" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AG32" t="s">
         <v>109</v>
@@ -12083,13 +12122,13 @@
         <v>109</v>
       </c>
       <c r="AP32" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ32" t="s">
         <v>109</v>
       </c>
       <c r="AR32" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS32" t="s">
         <v>109</v>
@@ -12101,13 +12140,13 @@
         <v>109</v>
       </c>
       <c r="AV32" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AW32" t="s">
         <v>109</v>
       </c>
       <c r="AX32" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AY32" t="s">
         <v>109</v>
@@ -12124,9 +12163,6 @@
       <c r="BC32" t="s">
         <v>109</v>
       </c>
-      <c r="BD32" t="s">
-        <v>109</v>
-      </c>
       <c r="BE32" t="s">
         <v>109</v>
       </c>
@@ -12136,9 +12172,6 @@
       <c r="BG32" t="s">
         <v>109</v>
       </c>
-      <c r="BH32" t="s">
-        <v>109</v>
-      </c>
       <c r="BI32" t="s">
         <v>109</v>
       </c>
@@ -12239,7 +12272,7 @@
         <v>109</v>
       </c>
       <c r="CP32" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ32" t="s">
         <v>109</v>
@@ -12251,7 +12284,7 @@
         <v>109</v>
       </c>
       <c r="CT32" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CU32" t="s">
         <v>109</v>
@@ -12296,18 +12329,24 @@
         <v>109</v>
       </c>
       <c r="DI32" t="s">
-        <v>198</v>
+        <v>109</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E33" t="s">
         <v>101</v>
@@ -12325,22 +12364,22 @@
         <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P33" t="s">
         <v>194</v>
@@ -12391,7 +12430,7 @@
         <v>109</v>
       </c>
       <c r="AF33" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AG33" t="s">
         <v>109</v>
@@ -12421,13 +12460,13 @@
         <v>109</v>
       </c>
       <c r="AP33" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AQ33" t="s">
         <v>109</v>
       </c>
       <c r="AR33" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AS33" t="s">
         <v>109</v>
@@ -12439,13 +12478,13 @@
         <v>109</v>
       </c>
       <c r="AV33" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="AW33" t="s">
         <v>109</v>
       </c>
       <c r="AX33" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="AY33" t="s">
         <v>109</v>
@@ -12462,9 +12501,6 @@
       <c r="BC33" t="s">
         <v>109</v>
       </c>
-      <c r="BD33" t="s">
-        <v>109</v>
-      </c>
       <c r="BE33" t="s">
         <v>109</v>
       </c>
@@ -12474,9 +12510,6 @@
       <c r="BG33" t="s">
         <v>109</v>
       </c>
-      <c r="BH33" t="s">
-        <v>109</v>
-      </c>
       <c r="BI33" t="s">
         <v>109</v>
       </c>
@@ -12577,7 +12610,7 @@
         <v>109</v>
       </c>
       <c r="CP33" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="CQ33" t="s">
         <v>109</v>
@@ -12589,7 +12622,7 @@
         <v>109</v>
       </c>
       <c r="CT33" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="CU33" t="s">
         <v>109</v>
@@ -12634,7 +12667,13 @@
         <v>109</v>
       </c>
       <c r="DI33" t="s">
-        <v>198</v>
+        <v>109</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
